--- a/tables/table2-mice/mice-prob-se.xlsx
+++ b/tables/table2-mice/mice-prob-se.xlsx
@@ -32864,13 +32864,13 @@
         <v>-1.0406360506505625</v>
       </c>
       <c r="D2" s="34">
-        <v>0.36380551847146569</v>
+        <v>0.36380551847146564</v>
       </c>
       <c r="E2" s="38">
-        <v>-1.7703051004455204</v>
+        <v>-1.7703051004455201</v>
       </c>
       <c r="F2" s="42">
-        <v>-0.3109670008556048</v>
+        <v>-0.31096700085560491</v>
       </c>
     </row>
     <row r="3">
@@ -32884,13 +32884,13 @@
         <v>-1.4045265008644843</v>
       </c>
       <c r="D3" s="53">
-        <v>0.25224715902296602</v>
+        <v>0.25224715902296568</v>
       </c>
       <c r="E3" s="56">
-        <v>-1.9104504732987166</v>
+        <v>-1.9104504732987158</v>
       </c>
       <c r="F3" s="59">
-        <v>-0.89860252843025201</v>
+        <v>-0.89860252843025268</v>
       </c>
     </row>
     <row r="4">
@@ -32904,13 +32904,13 @@
         <v>-1.4156938160378711</v>
       </c>
       <c r="D4" s="70">
-        <v>0.20702418293419153</v>
+        <v>0.2070241829341912</v>
       </c>
       <c r="E4" s="73">
-        <v>-1.8309146665646614</v>
+        <v>-1.8309146665646607</v>
       </c>
       <c r="F4" s="76">
-        <v>-1.0004729655110809</v>
+        <v>-1.0004729655110816</v>
       </c>
     </row>
     <row r="5">
@@ -32924,7 +32924,7 @@
         <v>-1.5841523000846829</v>
       </c>
       <c r="D5" s="87">
-        <v>0.25321923865562213</v>
+        <v>0.25321923865562218</v>
       </c>
       <c r="E5" s="90">
         <v>-2.0920260869272802</v>
@@ -32944,13 +32944,13 @@
         <v>-1.1587974008904598</v>
       </c>
       <c r="D6" s="104">
-        <v>0.20348997579428682</v>
+        <v>0.20348997579428676</v>
       </c>
       <c r="E6" s="107">
         <v>-1.5669287263294822</v>
       </c>
       <c r="F6" s="110">
-        <v>-0.75066607545143738</v>
+        <v>-0.75066607545143749</v>
       </c>
     </row>
     <row r="7">
@@ -32964,13 +32964,13 @@
         <v>-1.507070362583216</v>
       </c>
       <c r="D7" s="121">
-        <v>0.23258836362251772</v>
+        <v>0.23258836362251778</v>
       </c>
       <c r="E7" s="124">
-        <v>-1.9738535641741675</v>
+        <v>-1.9738535641741677</v>
       </c>
       <c r="F7" s="127">
-        <v>-1.0402871609922646</v>
+        <v>-1.0402871609922644</v>
       </c>
     </row>
     <row r="8">
@@ -32984,13 +32984,13 @@
         <v>-1.3067962250397984</v>
       </c>
       <c r="D8" s="138">
-        <v>0.30293576526972854</v>
+        <v>0.30293576526972865</v>
       </c>
       <c r="E8" s="141">
         <v>-1.9209046145825885</v>
       </c>
       <c r="F8" s="144">
-        <v>-0.69268783549700841</v>
+        <v>-0.69268783549700819</v>
       </c>
     </row>
     <row r="9">
@@ -33024,13 +33024,13 @@
         <v>-0.45003708360347544</v>
       </c>
       <c r="D10" s="172">
-        <v>0.41456267703502819</v>
+        <v>0.41456267703502825</v>
       </c>
       <c r="E10" s="175">
-        <v>-1.2835480298340367</v>
+        <v>-1.2835480298340369</v>
       </c>
       <c r="F10" s="178">
-        <v>0.38347386262708588</v>
+        <v>0.38347386262708599</v>
       </c>
     </row>
     <row r="11">
@@ -33044,13 +33044,13 @@
         <v>-0.88504134479855789</v>
       </c>
       <c r="D11" s="189">
-        <v>0.26239709309063852</v>
+        <v>0.26239709309063858</v>
       </c>
       <c r="E11" s="192">
-        <v>-1.4113235296598734</v>
+        <v>-1.4113235296598736</v>
       </c>
       <c r="F11" s="195">
-        <v>-0.35875915993724239</v>
+        <v>-0.35875915993724228</v>
       </c>
     </row>
     <row r="12">
@@ -33084,7 +33084,7 @@
         <v>-1.9137924692397328</v>
       </c>
       <c r="D13" s="223">
-        <v>0.28736547545955665</v>
+        <v>0.28736547545955671</v>
       </c>
       <c r="E13" s="226">
         <v>-2.4901538739429436</v>
@@ -33104,13 +33104,13 @@
         <v>-1.4590168558415602</v>
       </c>
       <c r="D14" s="240">
-        <v>0.27187398809356256</v>
+        <v>0.2718739880935625</v>
       </c>
       <c r="E14" s="243">
-        <v>-2.0043037779761623</v>
+        <v>-2.0043037779761619</v>
       </c>
       <c r="F14" s="246">
-        <v>-0.9137299337069581</v>
+        <v>-0.91372993370695821</v>
       </c>
     </row>
     <row r="15">
@@ -33124,7 +33124,7 @@
         <v>-1.2502815570767061</v>
       </c>
       <c r="D15" s="257">
-        <v>0.22366132634444502</v>
+        <v>0.22366132634444505</v>
       </c>
       <c r="E15" s="260">
         <v>-1.6988702874031385</v>
@@ -33144,13 +33144,13 @@
         <v>-1.4155785445065745</v>
       </c>
       <c r="D16" s="274">
-        <v>0.18545725517290532</v>
+        <v>0.18545725517290523</v>
       </c>
       <c r="E16" s="277">
-        <v>-1.7875953413658434</v>
+        <v>-1.7875953413658432</v>
       </c>
       <c r="F16" s="280">
-        <v>-1.0435617476473056</v>
+        <v>-1.0435617476473058</v>
       </c>
     </row>
     <row r="17">
@@ -33164,13 +33164,13 @@
         <v>-1.1037132213821308</v>
       </c>
       <c r="D17" s="291">
-        <v>0.25772769720485589</v>
+        <v>0.25772769720485578</v>
       </c>
       <c r="E17" s="294">
-        <v>-1.6208749227595343</v>
+        <v>-1.620874922759534</v>
       </c>
       <c r="F17" s="297">
-        <v>-0.58655152000472732</v>
+        <v>-0.58655152000472754</v>
       </c>
     </row>
     <row r="18">
@@ -33184,13 +33184,13 @@
         <v>-1.0654740740494615</v>
       </c>
       <c r="D18" s="308">
-        <v>0.30292656959478131</v>
+        <v>0.30292656959478137</v>
       </c>
       <c r="E18" s="311">
-        <v>-1.673042729397449</v>
+        <v>-1.6730427293974492</v>
       </c>
       <c r="F18" s="314">
-        <v>-0.45790541870147394</v>
+        <v>-0.45790541870147383</v>
       </c>
     </row>
     <row r="19">
@@ -33204,13 +33204,13 @@
         <v>-1.4204550391565882</v>
       </c>
       <c r="D19" s="325">
-        <v>0.25345156955882914</v>
+        <v>0.25345156955882925</v>
       </c>
       <c r="E19" s="328">
         <v>-1.928792981288161</v>
       </c>
       <c r="F19" s="331">
-        <v>-0.91211709702501553</v>
+        <v>-0.91211709702501531</v>
       </c>
     </row>
     <row r="20">
@@ -33224,13 +33224,13 @@
         <v>-1.4134105600297531</v>
       </c>
       <c r="D20" s="342">
-        <v>0.28177745116113934</v>
+        <v>0.28177745116113939</v>
       </c>
       <c r="E20" s="345">
         <v>-1.9785640241524338</v>
       </c>
       <c r="F20" s="348">
-        <v>-0.84825709590707243</v>
+        <v>-0.84825709590707232</v>
       </c>
     </row>
     <row r="21">
@@ -33244,7 +33244,7 @@
         <v>-1.9211527604592926</v>
       </c>
       <c r="D21" s="359">
-        <v>0.27641856188769098</v>
+        <v>0.27641856188769104</v>
       </c>
       <c r="E21" s="362">
         <v>-2.4755601558065905</v>
@@ -33264,13 +33264,13 @@
         <v>-0.87412714308364703</v>
       </c>
       <c r="D22" s="376">
-        <v>0.19160777950204666</v>
+        <v>0.19160777950204663</v>
       </c>
       <c r="E22" s="379">
         <v>-1.2584358495533652</v>
       </c>
       <c r="F22" s="382">
-        <v>-0.48981843661392882</v>
+        <v>-0.48981843661392888</v>
       </c>
     </row>
     <row r="23">
@@ -33284,7 +33284,7 @@
         <v>-2.2006547261240588</v>
       </c>
       <c r="D23" s="393">
-        <v>0.37088911140493025</v>
+        <v>0.37088911140493031</v>
       </c>
       <c r="E23" s="396">
         <v>-2.9445329283918928</v>
@@ -33304,13 +33304,13 @@
         <v>-1.5507221066916568</v>
       </c>
       <c r="D24" s="410">
-        <v>0.34769356480251318</v>
+        <v>0.34769356480251357</v>
       </c>
       <c r="E24" s="413">
-        <v>-2.2480786674469524</v>
+        <v>-2.2480786674469533</v>
       </c>
       <c r="F24" s="416">
-        <v>-0.85336554593636094</v>
+        <v>-0.85336554593636016</v>
       </c>
     </row>
     <row r="25">
@@ -33324,13 +33324,13 @@
         <v>-0.78395092307565961</v>
       </c>
       <c r="D25" s="427">
-        <v>0.20554221197843014</v>
+        <v>0.20554221197843062</v>
       </c>
       <c r="E25" s="430">
-        <v>-1.1962031981880044</v>
+        <v>-1.1962031981880052</v>
       </c>
       <c r="F25" s="433">
-        <v>-0.37169864796331487</v>
+        <v>-0.37169864796331392</v>
       </c>
     </row>
     <row r="26">
@@ -33344,13 +33344,13 @@
         <v>-1.1201377138136137</v>
       </c>
       <c r="D26" s="444">
-        <v>0.23921831434675384</v>
+        <v>0.23921831434675375</v>
       </c>
       <c r="E26" s="447">
-        <v>-1.5999324049043926</v>
+        <v>-1.5999324049043924</v>
       </c>
       <c r="F26" s="450">
-        <v>-0.64034302272283494</v>
+        <v>-0.64034302272283505</v>
       </c>
     </row>
     <row r="27">
@@ -33364,13 +33364,13 @@
         <v>-1.4884722451548129</v>
       </c>
       <c r="D27" s="461">
-        <v>0.24263413370060036</v>
+        <v>0.24263413370060022</v>
       </c>
       <c r="E27" s="464">
-        <v>-1.9751137621887938</v>
+        <v>-1.9751137621887935</v>
       </c>
       <c r="F27" s="467">
-        <v>-1.0018307281208321</v>
+        <v>-1.0018307281208323</v>
       </c>
     </row>
     <row r="28">
@@ -33384,13 +33384,13 @@
         <v>-1.156434904431229</v>
       </c>
       <c r="D28" s="478">
-        <v>0.21238853333729552</v>
+        <v>0.2123885333372956</v>
       </c>
       <c r="E28" s="481">
-        <v>-1.5824144658256565</v>
+        <v>-1.5824144658256567</v>
       </c>
       <c r="F28" s="484">
-        <v>-0.73045534303680149</v>
+        <v>-0.73045534303680137</v>
       </c>
     </row>
     <row r="29">
@@ -33424,13 +33424,13 @@
         <v>-1.3513876846372479</v>
       </c>
       <c r="D30" s="512">
-        <v>0.18970154473402051</v>
+        <v>0.18970154473402068</v>
       </c>
       <c r="E30" s="515">
-        <v>-1.7318643587622327</v>
+        <v>-1.7318643587622331</v>
       </c>
       <c r="F30" s="518">
-        <v>-0.97091101051226314</v>
+        <v>-0.97091101051226281</v>
       </c>
     </row>
     <row r="31">
@@ -33444,13 +33444,13 @@
         <v>-1.2674145066813693</v>
       </c>
       <c r="D31" s="529">
-        <v>0.33662345841572205</v>
+        <v>0.33662345841572211</v>
       </c>
       <c r="E31" s="532">
         <v>-1.9425711480069641</v>
       </c>
       <c r="F31" s="535">
-        <v>-0.59225786535577463</v>
+        <v>-0.59225786535577452</v>
       </c>
     </row>
     <row r="32">
@@ -33464,13 +33464,13 @@
         <v>-1.4518379733231228</v>
       </c>
       <c r="D32" s="546">
-        <v>0.18907581326036965</v>
+        <v>0.18907581326036985</v>
       </c>
       <c r="E32" s="549">
-        <v>-1.8310981821991439</v>
+        <v>-1.8310981821991443</v>
       </c>
       <c r="F32" s="552">
-        <v>-1.0725777644471017</v>
+        <v>-1.0725777644471013</v>
       </c>
     </row>
     <row r="33">
@@ -33484,13 +33484,13 @@
         <v>-1.0840139856982869</v>
       </c>
       <c r="D33" s="563">
-        <v>0.23785039249620651</v>
+        <v>0.23785039249620665</v>
       </c>
       <c r="E33" s="566">
-        <v>-1.5611487978190692</v>
+        <v>-1.5611487978190695</v>
       </c>
       <c r="F33" s="569">
-        <v>-0.60687917357750454</v>
+        <v>-0.60687917357750432</v>
       </c>
     </row>
     <row r="34">
@@ -33524,13 +33524,13 @@
         <v>-1.3141964030561173</v>
       </c>
       <c r="D35" s="597">
-        <v>0.1722918283894653</v>
+        <v>0.17229182838946519</v>
       </c>
       <c r="E35" s="600">
-        <v>-1.6597574971167424</v>
+        <v>-1.6597574971167421</v>
       </c>
       <c r="F35" s="603">
-        <v>-0.96863530899549222</v>
+        <v>-0.96863530899549244</v>
       </c>
     </row>
     <row r="36">
@@ -33604,7 +33604,7 @@
         <v>-1.1723071638974101</v>
       </c>
       <c r="D39" s="665">
-        <v>0.21264840704636634</v>
+        <v>0.21264840704636637</v>
       </c>
       <c r="E39" s="668">
         <v>-1.5991144857473605</v>
@@ -33624,13 +33624,13 @@
         <v>-1.3400615333997621</v>
       </c>
       <c r="D40" s="682">
-        <v>0.15608168618222745</v>
+        <v>0.1560816861822277</v>
       </c>
       <c r="E40" s="685">
-        <v>-1.6531097062554001</v>
+        <v>-1.6531097062554005</v>
       </c>
       <c r="F40" s="688">
-        <v>-1.0270133605441241</v>
+        <v>-1.0270133605441236</v>
       </c>
     </row>
     <row r="41">
@@ -33644,13 +33644,13 @@
         <v>-1.2812695656082602</v>
       </c>
       <c r="D41" s="703">
-        <v>0.36323602400780969</v>
+        <v>0.36323602400780985</v>
       </c>
       <c r="E41" s="707">
-        <v>-2.0098057131747522</v>
+        <v>-2.0098057131747527</v>
       </c>
       <c r="F41" s="711">
-        <v>-0.55273341804176801</v>
+        <v>-0.55273341804176768</v>
       </c>
     </row>
   </sheetData>
@@ -33693,13 +33693,13 @@
         <v>1.7097939424216133</v>
       </c>
       <c r="D2" s="745">
-        <v>0.42288973483668779</v>
+        <v>0.42288973483668785</v>
       </c>
       <c r="E2" s="749">
-        <v>0.86162251741554674</v>
+        <v>0.86162251741554663</v>
       </c>
       <c r="F2" s="753">
-        <v>2.5579653674276797</v>
+        <v>2.5579653674276801</v>
       </c>
     </row>
     <row r="3">
@@ -33713,7 +33713,7 @@
         <v>2.4107334136197891</v>
       </c>
       <c r="D3" s="764">
-        <v>0.31007207769392414</v>
+        <v>0.31007207769392425</v>
       </c>
       <c r="E3" s="767">
         <v>1.7888348917254819</v>
@@ -33753,10 +33753,10 @@
         <v>2.2694775162663605</v>
       </c>
       <c r="D5" s="798">
-        <v>0.31234712786945007</v>
+        <v>0.31234712786945001</v>
       </c>
       <c r="E5" s="801">
-        <v>1.6430158932575161</v>
+        <v>1.6430158932575163</v>
       </c>
       <c r="F5" s="804">
         <v>2.895939139275205</v>
@@ -33773,13 +33773,13 @@
         <v>1.9734770572740241</v>
       </c>
       <c r="D6" s="815">
-        <v>0.20006902157044312</v>
+        <v>0.20006902157044279</v>
       </c>
       <c r="E6" s="818">
-        <v>1.5722070609031953</v>
+        <v>1.572207060903196</v>
       </c>
       <c r="F6" s="821">
-        <v>2.3747470536448532</v>
+        <v>2.3747470536448523</v>
       </c>
     </row>
     <row r="7">
@@ -33793,13 +33793,13 @@
         <v>2.3253675664173299</v>
       </c>
       <c r="D7" s="832">
-        <v>0.24553018500852425</v>
+        <v>0.24553018500852422</v>
       </c>
       <c r="E7" s="835">
         <v>1.8328924301013811</v>
       </c>
       <c r="F7" s="838">
-        <v>2.8178427027332789</v>
+        <v>2.8178427027332784</v>
       </c>
     </row>
     <row r="8">
@@ -33893,13 +33893,13 @@
         <v>2.1188629156757921</v>
       </c>
       <c r="D12" s="917">
-        <v>0.33141638311363592</v>
+        <v>0.33141638311363597</v>
       </c>
       <c r="E12" s="920">
-        <v>1.4541543779441981</v>
+        <v>1.4541543779441979</v>
       </c>
       <c r="F12" s="923">
-        <v>2.7835714534073861</v>
+        <v>2.7835714534073865</v>
       </c>
     </row>
     <row r="13">
@@ -33913,7 +33913,7 @@
         <v>2.096056215555302</v>
       </c>
       <c r="D13" s="934">
-        <v>0.24565535512445927</v>
+        <v>0.24565535512445924</v>
       </c>
       <c r="E13" s="937">
         <v>1.6033554579840579</v>
@@ -33933,7 +33933,7 @@
         <v>2.4557009303918154</v>
       </c>
       <c r="D14" s="951">
-        <v>0.40490067045126821</v>
+        <v>0.4049006704512681</v>
       </c>
       <c r="E14" s="954">
         <v>1.6436095301893392</v>
@@ -33953,10 +33953,10 @@
         <v>1.9191133824586655</v>
       </c>
       <c r="D15" s="968">
-        <v>0.20651006358351651</v>
+        <v>0.20651006358351637</v>
       </c>
       <c r="E15" s="971">
-        <v>1.5049249492116321</v>
+        <v>1.5049249492116323</v>
       </c>
       <c r="F15" s="974">
         <v>2.3333018157056986</v>
@@ -33973,7 +33973,7 @@
         <v>2.0599348474289458</v>
       </c>
       <c r="D16" s="985">
-        <v>0.20394034665594402</v>
+        <v>0.2039403466559441</v>
       </c>
       <c r="E16" s="988">
         <v>1.650852696818184</v>
@@ -34033,7 +34033,7 @@
         <v>2.2688422676076763</v>
       </c>
       <c r="D19" s="1036">
-        <v>0.27508300779666833</v>
+        <v>0.27508300779666822</v>
       </c>
       <c r="E19" s="1039">
         <v>1.7171200665112933</v>
@@ -34053,10 +34053,10 @@
         <v>2.1653966427400286</v>
       </c>
       <c r="D20" s="1053">
-        <v>0.33001390604507375</v>
+        <v>0.33001390604507364</v>
       </c>
       <c r="E20" s="1056">
-        <v>1.5035024132228034</v>
+        <v>1.5035024132228036</v>
       </c>
       <c r="F20" s="1059">
         <v>2.8272908722572536</v>
@@ -34073,7 +34073,7 @@
         <v>1.6062740756349132</v>
       </c>
       <c r="D21" s="1070">
-        <v>0.23733611623237441</v>
+        <v>0.23733611623237449</v>
       </c>
       <c r="E21" s="1073">
         <v>1.1302541602539118</v>
@@ -34093,13 +34093,13 @@
         <v>2.447280657697378</v>
       </c>
       <c r="D22" s="1087">
-        <v>0.27480670220486891</v>
+        <v>0.27480670220486919</v>
       </c>
       <c r="E22" s="1090">
-        <v>1.8961117644700525</v>
+        <v>1.896111764470052</v>
       </c>
       <c r="F22" s="1093">
-        <v>2.9984495509247036</v>
+        <v>2.998449550924704</v>
       </c>
     </row>
     <row r="23">
@@ -34113,13 +34113,13 @@
         <v>2.9801611651430067</v>
       </c>
       <c r="D23" s="1104">
-        <v>0.48874093367331412</v>
+        <v>0.488740933673314</v>
       </c>
       <c r="E23" s="1107">
-        <v>1.9994134144320932</v>
+        <v>1.9994134144320936</v>
       </c>
       <c r="F23" s="1110">
-        <v>3.9609089158539201</v>
+        <v>3.9609089158539197</v>
       </c>
     </row>
     <row r="24">
@@ -34133,13 +34133,13 @@
         <v>1.8748838948666244</v>
       </c>
       <c r="D24" s="1121">
-        <v>0.2596199689194677</v>
+        <v>0.25961996891946798</v>
       </c>
       <c r="E24" s="1124">
-        <v>1.3539127859397135</v>
+        <v>1.3539127859397129</v>
       </c>
       <c r="F24" s="1127">
-        <v>2.3958550037935353</v>
+        <v>2.3958550037935362</v>
       </c>
     </row>
     <row r="25">
@@ -34153,13 +34153,13 @@
         <v>1.8770374183382015</v>
       </c>
       <c r="D25" s="1138">
-        <v>0.24312197345315745</v>
+        <v>0.24312197345315775</v>
       </c>
       <c r="E25" s="1141">
-        <v>1.3892808182767309</v>
+        <v>1.3892808182767302</v>
       </c>
       <c r="F25" s="1144">
-        <v>2.3647940183996723</v>
+        <v>2.3647940183996727</v>
       </c>
     </row>
     <row r="26">
@@ -34173,13 +34173,13 @@
         <v>2.1393631318392101</v>
       </c>
       <c r="D26" s="1155">
-        <v>0.28004790171647209</v>
+        <v>0.28004790171647187</v>
       </c>
       <c r="E26" s="1158">
-        <v>1.5776809704671888</v>
+        <v>1.5776809704671892</v>
       </c>
       <c r="F26" s="1161">
-        <v>2.7010452932112314</v>
+        <v>2.701045293211231</v>
       </c>
     </row>
     <row r="27">
@@ -34193,10 +34193,10 @@
         <v>2.0627575185345561</v>
       </c>
       <c r="D27" s="1172">
-        <v>0.27280884370369274</v>
+        <v>0.27280884370369279</v>
       </c>
       <c r="E27" s="1175">
-        <v>1.5155963614964014</v>
+        <v>1.5155963614964012</v>
       </c>
       <c r="F27" s="1178">
         <v>2.6099186755727111</v>
@@ -34213,13 +34213,13 @@
         <v>2.1682529517958713</v>
       </c>
       <c r="D28" s="1189">
-        <v>0.22993959210845119</v>
+        <v>0.22993959210845127</v>
       </c>
       <c r="E28" s="1192">
-        <v>1.7070728309808283</v>
+        <v>1.7070728309808281</v>
       </c>
       <c r="F28" s="1195">
-        <v>2.6294330726109143</v>
+        <v>2.6294330726109147</v>
       </c>
     </row>
     <row r="29">
@@ -34233,13 +34233,13 @@
         <v>1.9666501142352051</v>
       </c>
       <c r="D29" s="1206">
-        <v>0.29434456057969061</v>
+        <v>0.29434456057969077</v>
       </c>
       <c r="E29" s="1209">
-        <v>1.3762939497662892</v>
+        <v>1.3762939497662887</v>
       </c>
       <c r="F29" s="1212">
-        <v>2.557006278704121</v>
+        <v>2.5570062787041214</v>
       </c>
     </row>
     <row r="30">
@@ -34253,13 +34253,13 @@
         <v>2.2933827261496189</v>
       </c>
       <c r="D30" s="1223">
-        <v>0.20554183561247469</v>
+        <v>0.20554183561247436</v>
       </c>
       <c r="E30" s="1226">
-        <v>1.8811366125464049</v>
+        <v>1.8811366125464055</v>
       </c>
       <c r="F30" s="1229">
-        <v>2.705628839752833</v>
+        <v>2.7056288397528325</v>
       </c>
     </row>
     <row r="31">
@@ -34273,10 +34273,10 @@
         <v>1.5463147338575354</v>
       </c>
       <c r="D31" s="1240">
-        <v>0.35811223714633628</v>
+        <v>0.35811223714633617</v>
       </c>
       <c r="E31" s="1243">
-        <v>0.82806273479046655</v>
+        <v>0.82806273479046677</v>
       </c>
       <c r="F31" s="1246">
         <v>2.264566732924604</v>
@@ -34293,13 +34293,13 @@
         <v>2.0156556941774757</v>
       </c>
       <c r="D32" s="1257">
-        <v>0.21885661234690523</v>
+        <v>0.21885661234690515</v>
       </c>
       <c r="E32" s="1260">
-        <v>1.5767025306061551</v>
+        <v>1.5767025306061553</v>
       </c>
       <c r="F32" s="1263">
-        <v>2.4546088577487963</v>
+        <v>2.4546088577487959</v>
       </c>
     </row>
     <row r="33">
@@ -34313,13 +34313,13 @@
         <v>2.2906745239411088</v>
       </c>
       <c r="D33" s="1274">
-        <v>0.29341357891752934</v>
+        <v>0.29341357891752928</v>
       </c>
       <c r="E33" s="1277">
-        <v>1.7021812816169901</v>
+        <v>1.7021812816169903</v>
       </c>
       <c r="F33" s="1280">
-        <v>2.8791677662652275</v>
+        <v>2.8791677662652271</v>
       </c>
     </row>
     <row r="34">
@@ -34333,13 +34333,13 @@
         <v>2.2556447140601272</v>
       </c>
       <c r="D34" s="1291">
-        <v>0.53948525904751243</v>
+        <v>0.5394852590475121</v>
       </c>
       <c r="E34" s="1294">
-        <v>1.17361369125216</v>
+        <v>1.1736136912521606</v>
       </c>
       <c r="F34" s="1297">
-        <v>3.3376757368680945</v>
+        <v>3.3376757368680936</v>
       </c>
     </row>
     <row r="35">
@@ -34353,13 +34353,13 @@
         <v>2.0816837447119578</v>
       </c>
       <c r="D35" s="1308">
-        <v>0.17922884578387854</v>
+        <v>0.17922884578387796</v>
       </c>
       <c r="E35" s="1311">
-        <v>1.7222115046448354</v>
+        <v>1.7222115046448367</v>
       </c>
       <c r="F35" s="1314">
-        <v>2.4411559847790802</v>
+        <v>2.4411559847790789</v>
       </c>
     </row>
     <row r="36">
@@ -34393,7 +34393,7 @@
         <v>1.7691960218361487</v>
       </c>
       <c r="D37" s="1342">
-        <v>0.35240895391202365</v>
+        <v>0.35240895391202359</v>
       </c>
       <c r="E37" s="1345">
         <v>1.0623805533896671</v>
@@ -34433,7 +34433,7 @@
         <v>1.9704121526758471</v>
       </c>
       <c r="D39" s="1376">
-        <v>0.23008541811580452</v>
+        <v>0.23008541811580444</v>
       </c>
       <c r="E39" s="1379">
         <v>1.5082661334314529</v>
@@ -34453,10 +34453,10 @@
         <v>2.3651059497706433</v>
       </c>
       <c r="D40" s="1393">
-        <v>0.24217666051177139</v>
+        <v>0.2421766605117715</v>
       </c>
       <c r="E40" s="1396">
-        <v>1.8793786001620127</v>
+        <v>1.8793786001620125</v>
       </c>
       <c r="F40" s="1399">
         <v>2.850833299379274</v>
@@ -34473,10 +34473,10 @@
         <v>1.3006323342848787</v>
       </c>
       <c r="D41" s="1414">
-        <v>0.37316154419867009</v>
+        <v>0.37316154419867015</v>
       </c>
       <c r="E41" s="1418">
-        <v>0.55217306208279104</v>
+        <v>0.55217306208279093</v>
       </c>
       <c r="F41" s="1422">
         <v>2.0490916064869662</v>
@@ -34522,10 +34522,10 @@
         <v>0.38403097348122739</v>
       </c>
       <c r="D2" s="1456">
-        <v>0.45672081757663741</v>
+        <v>0.45672081757663735</v>
       </c>
       <c r="E2" s="1460">
-        <v>-0.5319950871465855</v>
+        <v>-0.53199508714658539</v>
       </c>
       <c r="F2" s="1464">
         <v>1.3000570341090403</v>
@@ -34562,13 +34562,13 @@
         <v>-0.1602290043393288</v>
       </c>
       <c r="D4" s="1492">
-        <v>0.18862165129010411</v>
+        <v>0.18862165129010405</v>
       </c>
       <c r="E4" s="1495">
-        <v>-0.53859744377277496</v>
+        <v>-0.53859744377277474</v>
       </c>
       <c r="F4" s="1498">
-        <v>0.21813943509411732</v>
+        <v>0.21813943509411721</v>
       </c>
     </row>
     <row r="5">
@@ -34582,13 +34582,13 @@
         <v>-0.20202269998340655</v>
       </c>
       <c r="D5" s="1509">
-        <v>0.22103823680876683</v>
+        <v>0.22103823680876691</v>
       </c>
       <c r="E5" s="1512">
-        <v>-0.64537549943071881</v>
+        <v>-0.64537549943071904</v>
       </c>
       <c r="F5" s="1515">
-        <v>0.24133009946390577</v>
+        <v>0.24133009946390593</v>
       </c>
     </row>
     <row r="6">
@@ -34622,13 +34622,13 @@
         <v>0.13152098523045958</v>
       </c>
       <c r="D7" s="1543">
-        <v>0.1616062465905721</v>
+        <v>0.16160624659057207</v>
       </c>
       <c r="E7" s="1546">
-        <v>-0.19276663910874858</v>
+        <v>-0.19276663910874853</v>
       </c>
       <c r="F7" s="1549">
-        <v>0.45580860956966773</v>
+        <v>0.45580860956966768</v>
       </c>
     </row>
     <row r="8">
@@ -34702,13 +34702,13 @@
         <v>-0.041639890230722579</v>
       </c>
       <c r="D11" s="1611">
-        <v>0.2033290820646477</v>
+        <v>0.20332908206464786</v>
       </c>
       <c r="E11" s="1614">
-        <v>-0.449494996270563</v>
+        <v>-0.44949499627056333</v>
       </c>
       <c r="F11" s="1617">
-        <v>0.36621521580911787</v>
+        <v>0.3662152158091182</v>
       </c>
     </row>
     <row r="12">
@@ -34722,13 +34722,13 @@
         <v>0.59661043657623392</v>
       </c>
       <c r="D12" s="1628">
-        <v>0.36788472278109557</v>
+        <v>0.36788472278109569</v>
       </c>
       <c r="E12" s="1631">
-        <v>-0.14129197584071074</v>
+        <v>-0.14129197584071096</v>
       </c>
       <c r="F12" s="1634">
-        <v>1.3345128489931786</v>
+        <v>1.3345128489931788</v>
       </c>
     </row>
     <row r="13">
@@ -34742,13 +34742,13 @@
         <v>-0.22699091006561839</v>
       </c>
       <c r="D13" s="1645">
-        <v>0.19011486380389706</v>
+        <v>0.19011486380389719</v>
       </c>
       <c r="E13" s="1648">
-        <v>-0.60832281325433613</v>
+        <v>-0.60832281325433646</v>
       </c>
       <c r="F13" s="1651">
-        <v>0.1543409931230994</v>
+        <v>0.15434099312309968</v>
       </c>
     </row>
     <row r="14">
@@ -34762,10 +34762,10 @@
         <v>0.29437524783612989</v>
       </c>
       <c r="D14" s="1662">
-        <v>0.24212076776582236</v>
+        <v>0.24212076776582239</v>
       </c>
       <c r="E14" s="1665">
-        <v>-0.1912465249149895</v>
+        <v>-0.19124652491498956</v>
       </c>
       <c r="F14" s="1668">
         <v>0.77999702058724929</v>
@@ -34782,13 +34782,13 @@
         <v>-0.096362352707245358</v>
       </c>
       <c r="D15" s="1679">
-        <v>0.16855967947839487</v>
+        <v>0.16855967947839492</v>
       </c>
       <c r="E15" s="1682">
-        <v>-0.43444740128176035</v>
+        <v>-0.43444740128176046</v>
       </c>
       <c r="F15" s="1685">
-        <v>0.24172269586726963</v>
+        <v>0.24172269586726974</v>
       </c>
     </row>
     <row r="16">
@@ -34802,13 +34802,13 @@
         <v>0.12124510596585761</v>
       </c>
       <c r="D16" s="1696">
-        <v>0.14012401728788443</v>
+        <v>0.14012401728788448</v>
       </c>
       <c r="E16" s="1699">
-        <v>-0.15983813762134083</v>
+        <v>-0.15983813762134094</v>
       </c>
       <c r="F16" s="1702">
-        <v>0.40232834955305607</v>
+        <v>0.40232834955305619</v>
       </c>
     </row>
     <row r="17">
@@ -34822,13 +34822,13 @@
         <v>-0.13940649156305873</v>
       </c>
       <c r="D17" s="1713">
-        <v>0.24210048738688464</v>
+        <v>0.24210048738688472</v>
       </c>
       <c r="E17" s="1716">
-        <v>-0.62514786744267559</v>
+        <v>-0.6251478674426757</v>
       </c>
       <c r="F17" s="1719">
-        <v>0.34633488431655807</v>
+        <v>0.34633488431655823</v>
       </c>
     </row>
     <row r="18">
@@ -34862,13 +34862,13 @@
         <v>0.11126779648756915</v>
       </c>
       <c r="D19" s="1747">
-        <v>0.21201692000933728</v>
+        <v>0.21201692000933733</v>
       </c>
       <c r="E19" s="1750">
-        <v>-0.31399842161983105</v>
+        <v>-0.31399842161983116</v>
       </c>
       <c r="F19" s="1753">
-        <v>0.53653401459496941</v>
+        <v>0.53653401459496952</v>
       </c>
     </row>
     <row r="20">
@@ -34882,10 +34882,10 @@
         <v>0.071074656112549983</v>
       </c>
       <c r="D20" s="1764">
-        <v>0.25995938484282072</v>
+        <v>0.25995938484282066</v>
       </c>
       <c r="E20" s="1767">
-        <v>-0.45031786405943047</v>
+        <v>-0.45031786405943036</v>
       </c>
       <c r="F20" s="1770">
         <v>0.59246717628453038</v>
@@ -34902,13 +34902,13 @@
         <v>1.355907048241825</v>
       </c>
       <c r="D21" s="1781">
-        <v>0.23907971143008011</v>
+        <v>0.23907971143008014</v>
       </c>
       <c r="E21" s="1784">
-        <v>0.87620169069151188</v>
+        <v>0.87620169069151177</v>
       </c>
       <c r="F21" s="1787">
-        <v>1.8356124057921379</v>
+        <v>1.8356124057921381</v>
       </c>
     </row>
     <row r="22">
@@ -34922,7 +34922,7 @@
         <v>-1.0332807801561454</v>
       </c>
       <c r="D22" s="1798">
-        <v>0.16356666273872555</v>
+        <v>0.16356666273872553</v>
       </c>
       <c r="E22" s="1801">
         <v>-1.3613577665024907</v>
@@ -34942,13 +34942,13 @@
         <v>-0.07722626698447306</v>
       </c>
       <c r="D23" s="1815">
-        <v>0.23009397230052589</v>
+        <v>0.23009397230052581</v>
       </c>
       <c r="E23" s="1818">
-        <v>-0.53875528591475885</v>
+        <v>-0.53875528591475863</v>
       </c>
       <c r="F23" s="1821">
-        <v>0.3843027519458127</v>
+        <v>0.38430275194581254</v>
       </c>
     </row>
     <row r="24">
@@ -34962,13 +34962,13 @@
         <v>0.05340256247864672</v>
       </c>
       <c r="D24" s="1832">
-        <v>0.2965588358750138</v>
+        <v>0.29655883587501369</v>
       </c>
       <c r="E24" s="1835">
-        <v>-0.54141922286610455</v>
+        <v>-0.54141922286610433</v>
       </c>
       <c r="F24" s="1838">
-        <v>0.64822434782339799</v>
+        <v>0.64822434782339777</v>
       </c>
     </row>
     <row r="25">
@@ -34982,13 +34982,13 @@
         <v>0.13927975863026204</v>
       </c>
       <c r="D25" s="1849">
-        <v>0.19287549583816874</v>
+        <v>0.19287549583816879</v>
       </c>
       <c r="E25" s="1852">
-        <v>-0.24756645348529965</v>
+        <v>-0.24756645348529976</v>
       </c>
       <c r="F25" s="1855">
-        <v>0.52612597074582368</v>
+        <v>0.5261259707458239</v>
       </c>
     </row>
     <row r="26">
@@ -35002,13 +35002,13 @@
         <v>-0.1207624847439968</v>
       </c>
       <c r="D26" s="1866">
-        <v>0.1929124888754036</v>
+        <v>0.19291248887540371</v>
       </c>
       <c r="E26" s="1869">
-        <v>-0.50770643381227543</v>
+        <v>-0.50770643381227565</v>
       </c>
       <c r="F26" s="1872">
-        <v>0.26618146432428186</v>
+        <v>0.26618146432428208</v>
       </c>
     </row>
     <row r="27">
@@ -35022,13 +35022,13 @@
         <v>0.19151782005760407</v>
       </c>
       <c r="D27" s="1883">
-        <v>0.19160926395838665</v>
+        <v>0.19160926395838673</v>
       </c>
       <c r="E27" s="1886">
-        <v>-0.19282807542703242</v>
+        <v>-0.19282807542703259</v>
       </c>
       <c r="F27" s="1889">
-        <v>0.57586371554224058</v>
+        <v>0.5758637155422407</v>
       </c>
     </row>
     <row r="28">
@@ -35042,13 +35042,13 @@
         <v>-0.034545719810758511</v>
       </c>
       <c r="D28" s="1900">
-        <v>0.17263087744874206</v>
+        <v>0.17263087744874211</v>
       </c>
       <c r="E28" s="1903">
-        <v>-0.3808063403777337</v>
+        <v>-0.38080634037773381</v>
       </c>
       <c r="F28" s="1906">
-        <v>0.31171490075621672</v>
+        <v>0.31171490075621683</v>
       </c>
     </row>
     <row r="29">
@@ -35082,13 +35082,13 @@
         <v>0.14922718640352403</v>
       </c>
       <c r="D30" s="1934">
-        <v>0.1479411804539755</v>
+        <v>0.14794118045397539</v>
       </c>
       <c r="E30" s="1937">
-        <v>-0.14752198303727274</v>
+        <v>-0.14752198303727251</v>
       </c>
       <c r="F30" s="1940">
-        <v>0.44597635584432083</v>
+        <v>0.4459763558443206</v>
       </c>
     </row>
     <row r="31">
@@ -35102,13 +35102,13 @@
         <v>-0.22153730686037645</v>
       </c>
       <c r="D31" s="1951">
-        <v>0.2820250066864653</v>
+        <v>0.28202500668646519</v>
       </c>
       <c r="E31" s="1954">
-        <v>-0.78722066232061583</v>
+        <v>-0.78722066232061561</v>
       </c>
       <c r="F31" s="1957">
-        <v>0.34414604859986297</v>
+        <v>0.34414604859986275</v>
       </c>
     </row>
     <row r="32">
@@ -35122,13 +35122,13 @@
         <v>0.003525324597608659</v>
       </c>
       <c r="D32" s="1968">
-        <v>0.15601488616200901</v>
+        <v>0.1560148861620089</v>
       </c>
       <c r="E32" s="1971">
-        <v>-0.30940060972126143</v>
+        <v>-0.30940060972126121</v>
       </c>
       <c r="F32" s="1974">
-        <v>0.31645125891647879</v>
+        <v>0.31645125891647857</v>
       </c>
     </row>
     <row r="33">
@@ -35142,13 +35142,13 @@
         <v>0.15366494008505605</v>
       </c>
       <c r="D33" s="1985">
-        <v>0.26936027367638388</v>
+        <v>0.26936027367638382</v>
       </c>
       <c r="E33" s="1988">
-        <v>-0.3866033714550825</v>
+        <v>-0.38660337145508239</v>
       </c>
       <c r="F33" s="1991">
-        <v>0.69393325162519459</v>
+        <v>0.69393325162519448</v>
       </c>
     </row>
     <row r="34">
@@ -35162,13 +35162,13 @@
         <v>0.23485670662423805</v>
       </c>
       <c r="D34" s="2002">
-        <v>0.55686841086053573</v>
+        <v>0.55686841086053585</v>
       </c>
       <c r="E34" s="2005">
-        <v>-0.88248033332176845</v>
+        <v>-0.88248033332176867</v>
       </c>
       <c r="F34" s="2008">
-        <v>1.3521937465702445</v>
+        <v>1.3521937465702447</v>
       </c>
     </row>
     <row r="35">
@@ -35182,13 +35182,13 @@
         <v>0.036972091042589084</v>
       </c>
       <c r="D35" s="2019">
-        <v>0.12477610062150095</v>
+        <v>0.1247761006215002</v>
       </c>
       <c r="E35" s="2022">
-        <v>-0.21329191141546849</v>
+        <v>-0.21329191141546699</v>
       </c>
       <c r="F35" s="2025">
-        <v>0.28723609350064666</v>
+        <v>0.28723609350064516</v>
       </c>
     </row>
     <row r="36">
@@ -35202,13 +35202,13 @@
         <v>0.36257861719581264</v>
       </c>
       <c r="D36" s="2036">
-        <v>0.17792494871318576</v>
+        <v>0.17792494871318582</v>
       </c>
       <c r="E36" s="2039">
-        <v>0.0057091305076597543</v>
+        <v>0.0057091305076596432</v>
       </c>
       <c r="F36" s="2042">
-        <v>0.71944810388396552</v>
+        <v>0.71944810388396563</v>
       </c>
     </row>
     <row r="37">
@@ -35222,13 +35222,13 @@
         <v>-0.69586016396522454</v>
       </c>
       <c r="D37" s="2053">
-        <v>0.31319153551767437</v>
+        <v>0.31319153551767442</v>
       </c>
       <c r="E37" s="2056">
-        <v>-1.3241187000884282</v>
+        <v>-1.3241187000884285</v>
       </c>
       <c r="F37" s="2059">
-        <v>-0.067601627842020839</v>
+        <v>-0.067601627842020728</v>
       </c>
     </row>
     <row r="38">
@@ -35242,13 +35242,13 @@
         <v>0.61650379950945289</v>
       </c>
       <c r="D38" s="2070">
-        <v>0.23330128460452729</v>
+        <v>0.23330128460452715</v>
       </c>
       <c r="E38" s="2073">
-        <v>0.14729415605796103</v>
+        <v>0.14729415605796131</v>
       </c>
       <c r="F38" s="2076">
-        <v>1.0857134429609447</v>
+        <v>1.0857134429609445</v>
       </c>
     </row>
     <row r="39">
@@ -35262,13 +35262,13 @@
         <v>-0.33998357676141289</v>
       </c>
       <c r="D39" s="2087">
-        <v>0.19721682731094423</v>
+        <v>0.19721682731094412</v>
       </c>
       <c r="E39" s="2090">
-        <v>-0.73651607515249351</v>
+        <v>-0.73651607515249329</v>
       </c>
       <c r="F39" s="2093">
-        <v>0.056548921629667792</v>
+        <v>0.05654892162966757</v>
       </c>
     </row>
     <row r="40">
@@ -35302,13 +35302,13 @@
         <v>-0.69615783911538232</v>
       </c>
       <c r="D41" s="2125">
-        <v>0.26118737889406829</v>
+        <v>0.2611873788940684</v>
       </c>
       <c r="E41" s="2129">
         <v>-1.2201455741750658</v>
       </c>
       <c r="F41" s="2133">
-        <v>-0.17217010405569899</v>
+        <v>-0.17217010405569877</v>
       </c>
     </row>
   </sheetData>
